--- a/Water_Level/Solinst_SerialNumber.xlsx
+++ b/Water_Level/Solinst_SerialNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Water_Level/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43153252-7974-F14C-8679-CB9C0CCA6C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69EAC44-D494-5541-B87E-893BBE862A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{51E9588E-32B4-C74E-BFD3-897853E1E191}"/>
   </bookViews>

--- a/Water_Level/Solinst_SerialNumber.xlsx
+++ b/Water_Level/Solinst_SerialNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Water_Level/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69EAC44-D494-5541-B87E-893BBE862A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D382D-8805-B249-9F93-3C9013367CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{51E9588E-32B4-C74E-BFD3-897853E1E191}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Location</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Downstream</t>
+  </si>
+  <si>
+    <t>Across from Lake</t>
+  </si>
+  <si>
+    <t>Lower</t>
   </si>
 </sst>
 </file>
@@ -429,14 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3027AE90-62D6-4F4B-97FF-4C1BBB84C4F1}">
-  <dimension ref="A4:C9"/>
+  <dimension ref="A4:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
   </cols>
@@ -507,6 +514,17 @@
         <v>2020435</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2020431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Water_Level/Solinst_SerialNumber.xlsx
+++ b/Water_Level/Solinst_SerialNumber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Water_Level/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D382D-8805-B249-9F93-3C9013367CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AAE5CB-1EC8-AD46-A914-C716BC50199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{51E9588E-32B4-C74E-BFD3-897853E1E191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{51E9588E-32B4-C74E-BFD3-897853E1E191}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Location</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>Parqueadero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center </t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3027AE90-62D6-4F4B-97FF-4C1BBB84C4F1}">
-  <dimension ref="A4:C10"/>
+  <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +531,17 @@
         <v>2020431</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2020433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
